--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H2">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.211866666666667</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N2">
-        <v>6.6356</v>
+        <v>4.192424</v>
       </c>
       <c r="O2">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P2">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q2">
-        <v>16.55503678733334</v>
+        <v>9.925527485658666</v>
       </c>
       <c r="R2">
-        <v>148.995331086</v>
+        <v>89.32974737092799</v>
       </c>
       <c r="S2">
-        <v>0.1844310076622395</v>
+        <v>0.3564212067596875</v>
       </c>
       <c r="T2">
-        <v>0.1844310076622395</v>
+        <v>0.3564212067596875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H3">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.385444666666666</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N3">
-        <v>7.156333999999999</v>
+        <v>0.234107</v>
       </c>
       <c r="O3">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P3">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q3">
-        <v>17.85420649714333</v>
+        <v>0.5542462935726666</v>
       </c>
       <c r="R3">
-        <v>160.68785847429</v>
+        <v>4.988216642154</v>
       </c>
       <c r="S3">
-        <v>0.1989043780197036</v>
+        <v>0.01990273394363026</v>
       </c>
       <c r="T3">
-        <v>0.1989043780197036</v>
+        <v>0.01990273394363026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.299809999999999</v>
+        <v>7.102474</v>
       </c>
       <c r="H4">
-        <v>24.89943</v>
+        <v>21.307422</v>
       </c>
       <c r="I4">
-        <v>0.4250850731647057</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J4">
-        <v>0.4250850731647057</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.211866666666667</v>
+        <v>0.034731</v>
       </c>
       <c r="N4">
-        <v>6.6356</v>
+        <v>0.104193</v>
       </c>
       <c r="O4">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P4">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q4">
-        <v>18.35807307866667</v>
+        <v>0.246676024494</v>
       </c>
       <c r="R4">
-        <v>165.222657708</v>
+        <v>2.220084220446</v>
       </c>
       <c r="S4">
-        <v>0.2045176921156758</v>
+        <v>0.008858024569058882</v>
       </c>
       <c r="T4">
-        <v>0.2045176921156758</v>
+        <v>0.008858024569058882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H5">
         <v>24.89943</v>
       </c>
       <c r="I5">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J5">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.385444666666666</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N5">
-        <v>7.156333999999999</v>
+        <v>4.192424</v>
       </c>
       <c r="O5">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P5">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q5">
-        <v>19.79873749884666</v>
+        <v>11.59877421314667</v>
       </c>
       <c r="R5">
-        <v>178.18863748962</v>
+        <v>104.38896791832</v>
       </c>
       <c r="S5">
-        <v>0.2205673810490298</v>
+        <v>0.4165067406196942</v>
       </c>
       <c r="T5">
-        <v>0.2205673810490298</v>
+        <v>0.4165067406196943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.493317</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H6">
-        <v>1.479951</v>
+        <v>24.89943</v>
       </c>
       <c r="I6">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J6">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.211866666666667</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N6">
-        <v>6.6356</v>
+        <v>0.234107</v>
       </c>
       <c r="O6">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P6">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q6">
-        <v>1.0911514284</v>
+        <v>0.6476812065566666</v>
       </c>
       <c r="R6">
-        <v>9.820362855600001</v>
+        <v>5.82913085901</v>
       </c>
       <c r="S6">
-        <v>0.01215594746402976</v>
+        <v>0.02325793944654804</v>
       </c>
       <c r="T6">
-        <v>0.01215594746402976</v>
+        <v>0.02325793944654805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.493317</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H7">
-        <v>1.479951</v>
+        <v>24.89943</v>
       </c>
       <c r="I7">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J7">
-        <v>0.02526584259620318</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.385444666666666</v>
+        <v>0.034731</v>
       </c>
       <c r="N7">
-        <v>7.156333999999999</v>
+        <v>0.104193</v>
       </c>
       <c r="O7">
-        <v>0.5188782080888727</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P7">
-        <v>0.5188782080888727</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q7">
-        <v>1.176780406626</v>
+        <v>0.28826070111</v>
       </c>
       <c r="R7">
-        <v>10.591023659634</v>
+        <v>2.59434630999</v>
       </c>
       <c r="S7">
-        <v>0.01310989513217342</v>
+        <v>0.01035131151462443</v>
       </c>
       <c r="T7">
-        <v>0.01310989513217342</v>
+        <v>0.01035131151462443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.042122</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H8">
-        <v>6.126365999999999</v>
+        <v>0.766678</v>
       </c>
       <c r="I8">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J8">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.211866666666667</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N8">
-        <v>6.6356</v>
+        <v>4.192424</v>
       </c>
       <c r="O8">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P8">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q8">
-        <v>4.516901581066666</v>
+        <v>0.3571376941635555</v>
       </c>
       <c r="R8">
-        <v>40.6521142296</v>
+        <v>3.214239247472</v>
       </c>
       <c r="S8">
-        <v>0.05032043847493473</v>
+        <v>0.01282465321032754</v>
       </c>
       <c r="T8">
-        <v>0.05032043847493474</v>
+        <v>0.01282465321032754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,22 +971,22 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.042122</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H9">
-        <v>6.126365999999999</v>
+        <v>0.766678</v>
       </c>
       <c r="I9">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J9">
-        <v>0.1045898134753994</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,95 +995,95 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.385444666666666</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N9">
-        <v>7.156333999999999</v>
+        <v>0.234107</v>
       </c>
       <c r="O9">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P9">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q9">
-        <v>4.871369033582665</v>
+        <v>0.01994274294955555</v>
       </c>
       <c r="R9">
-        <v>43.84232130224399</v>
+        <v>0.179484686546</v>
       </c>
       <c r="S9">
-        <v>0.05426937500046469</v>
+        <v>0.0007161348873849947</v>
       </c>
       <c r="T9">
-        <v>0.0542693750004647</v>
+        <v>0.0007161348873849949</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.9279860000000001</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H10">
-        <v>2.783958</v>
+        <v>0.766678</v>
       </c>
       <c r="I10">
-        <v>0.04752795506232343</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J10">
-        <v>0.04752795506232343</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.211866666666667</v>
+        <v>0.034731</v>
       </c>
       <c r="N10">
-        <v>6.6356</v>
+        <v>0.104193</v>
       </c>
       <c r="O10">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P10">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q10">
-        <v>2.052581300533334</v>
+        <v>0.008875831205999999</v>
       </c>
       <c r="R10">
-        <v>18.4732317048</v>
+        <v>0.07988248085399999</v>
       </c>
       <c r="S10">
-        <v>0.02286673490545658</v>
+        <v>0.0003187270877047878</v>
       </c>
       <c r="T10">
-        <v>0.02286673490545658</v>
+        <v>0.0003187270877047879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9279860000000001</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H11">
-        <v>2.783958</v>
+        <v>4.177937</v>
       </c>
       <c r="I11">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J11">
-        <v>0.04752795506232343</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.385444666666666</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N11">
-        <v>7.156333999999999</v>
+        <v>4.192424</v>
       </c>
       <c r="O11">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P11">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q11">
-        <v>2.213659254441333</v>
+        <v>1.946187038809778</v>
       </c>
       <c r="R11">
-        <v>19.922933289972</v>
+        <v>17.515683349288</v>
       </c>
       <c r="S11">
-        <v>0.02466122015686685</v>
+        <v>0.0698866971004727</v>
       </c>
       <c r="T11">
-        <v>0.02466122015686685</v>
+        <v>0.06988669710047272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2771763333333333</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H12">
-        <v>0.831529</v>
+        <v>4.177937</v>
       </c>
       <c r="I12">
-        <v>0.01419593001942513</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J12">
-        <v>0.01419593001942513</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,90 +1181,462 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.211866666666667</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N12">
-        <v>6.6356</v>
+        <v>0.234107</v>
       </c>
       <c r="O12">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P12">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q12">
-        <v>0.6130770924888889</v>
+        <v>0.1086760330287778</v>
       </c>
       <c r="R12">
-        <v>5.5176938324</v>
+        <v>0.9780842972589999</v>
       </c>
       <c r="S12">
-        <v>0.006829971288790779</v>
+        <v>0.003902507236410335</v>
       </c>
       <c r="T12">
-        <v>0.006829971288790779</v>
+        <v>0.003902507236410336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.392645666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.177937</v>
+      </c>
+      <c r="I13">
+        <v>0.07552607652132563</v>
+      </c>
+      <c r="J13">
+        <v>0.07552607652132566</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.034731</v>
+      </c>
+      <c r="N13">
+        <v>0.104193</v>
+      </c>
+      <c r="O13">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P13">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q13">
+        <v>0.048367976649</v>
+      </c>
+      <c r="R13">
+        <v>0.435311789841</v>
+      </c>
+      <c r="S13">
+        <v>0.001736872184442593</v>
+      </c>
+      <c r="T13">
+        <v>0.001736872184442593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.139971333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.419914</v>
+      </c>
+      <c r="I14">
+        <v>0.06182302089771886</v>
+      </c>
+      <c r="J14">
+        <v>0.06182302089771888</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.397474666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.192424</v>
+      </c>
+      <c r="O14">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="P14">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="Q14">
+        <v>1.593081059059556</v>
+      </c>
+      <c r="R14">
+        <v>14.337729531536</v>
+      </c>
+      <c r="S14">
+        <v>0.05720682093283504</v>
+      </c>
+      <c r="T14">
+        <v>0.05720682093283506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.139971333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.419914</v>
+      </c>
+      <c r="I15">
+        <v>0.06182302089771886</v>
+      </c>
+      <c r="J15">
+        <v>0.06182302089771888</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.07803566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.234107</v>
+      </c>
+      <c r="O15">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="P15">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="Q15">
+        <v>0.08895842297755555</v>
+      </c>
+      <c r="R15">
+        <v>0.800625806798</v>
+      </c>
+      <c r="S15">
+        <v>0.003194456769669101</v>
+      </c>
+      <c r="T15">
+        <v>0.003194456769669102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.139971333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.419914</v>
+      </c>
+      <c r="I16">
+        <v>0.06182302089771886</v>
+      </c>
+      <c r="J16">
+        <v>0.06182302089771888</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.034731</v>
+      </c>
+      <c r="N16">
+        <v>0.104193</v>
+      </c>
+      <c r="O16">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P16">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q16">
+        <v>0.039592344378</v>
+      </c>
+      <c r="R16">
+        <v>0.356331099402</v>
+      </c>
+      <c r="S16">
+        <v>0.001421743195214721</v>
+      </c>
+      <c r="T16">
+        <v>0.001421743195214721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.248809</v>
+      </c>
+      <c r="H17">
+        <v>0.746427</v>
+      </c>
+      <c r="I17">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J17">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.397474666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.192424</v>
+      </c>
+      <c r="O17">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="P17">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="Q17">
+        <v>0.3477042743386666</v>
+      </c>
+      <c r="R17">
+        <v>3.129338469048</v>
+      </c>
+      <c r="S17">
+        <v>0.01248590336728738</v>
+      </c>
+      <c r="T17">
+        <v>0.01248590336728738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.2771763333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.831529</v>
-      </c>
-      <c r="I13">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="J13">
-        <v>0.01419593001942513</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.385444666666666</v>
-      </c>
-      <c r="N13">
-        <v>7.156333999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.5188782080888727</v>
-      </c>
-      <c r="P13">
-        <v>0.5188782080888727</v>
-      </c>
-      <c r="Q13">
-        <v>0.6611888060762221</v>
-      </c>
-      <c r="R13">
-        <v>5.950699254686</v>
-      </c>
-      <c r="S13">
-        <v>0.007365958730634345</v>
-      </c>
-      <c r="T13">
-        <v>0.007365958730634345</v>
+      <c r="G18">
+        <v>0.248809</v>
+      </c>
+      <c r="H18">
+        <v>0.746427</v>
+      </c>
+      <c r="I18">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J18">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.07803566666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.234107</v>
+      </c>
+      <c r="O18">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="P18">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="Q18">
+        <v>0.01941597618766666</v>
+      </c>
+      <c r="R18">
+        <v>0.174743785689</v>
+      </c>
+      <c r="S18">
+        <v>0.0006972189310063931</v>
+      </c>
+      <c r="T18">
+        <v>0.0006972189310063933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.248809</v>
+      </c>
+      <c r="H19">
+        <v>0.746427</v>
+      </c>
+      <c r="I19">
+        <v>0.0134934305422948</v>
+      </c>
+      <c r="J19">
+        <v>0.01349343054229481</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.034731</v>
+      </c>
+      <c r="N19">
+        <v>0.104193</v>
+      </c>
+      <c r="O19">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P19">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q19">
+        <v>0.008641385378999999</v>
+      </c>
+      <c r="R19">
+        <v>0.077772468411</v>
+      </c>
+      <c r="S19">
+        <v>0.00031030824400103</v>
+      </c>
+      <c r="T19">
+        <v>0.00031030824400103</v>
       </c>
     </row>
   </sheetData>
